--- a/biology/Zoologie/Bombus_pratorum/Bombus_pratorum.xlsx
+++ b/biology/Zoologie/Bombus_pratorum/Bombus_pratorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bourdon des prés
 Bombus pratorum, le bourdon des prés, est une espèce d'insectes hyménoptères de la famille des Apidae (de Apis: abeille), du genre Bombus et du sous-genre Pyrobombus. C'est un petit bourdon précoce, à collier jaune et extrémité abdominale orange.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourdon des prés est une espèce à coloration très variable. 
 Les individus femelles typiques possèdent une bande jaune à l'avant du thorax, derrière la tête (appelée collare) ainsi qu'une bande jaune sur le second tergite (segment de l'abdomen), à la base de celui-ci. Ces bandes jaunes sont susceptibles d'être absentes, ou bien réduites à quelques poils épars. La pilosité rouge des derniers tergites (4 à 6) est par contre quasiment immuable. 
@@ -550,7 +564,9 @@
           <t>Période de vol</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mars à juillet.
 </t>
@@ -581,9 +597,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terrains dégagés, prairies, jardins, parcs et lisières[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terrains dégagés, prairies, jardins, parcs et lisières.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Commune dans toute l'Europe.
 </t>
@@ -643,7 +663,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pollen est stocké dans des pots de cire ou des cellules vides et non dans des poches accolées aux cellules de couvain.
 Les colonies ne dépassent pas 120 individus[réf. nécessaire].
@@ -675,7 +697,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourdon des prés butine pour se nourrir.
 Ils sont végétariens et se nourrissent principalement de nectar, de pollen et de miel.
@@ -708,7 +732,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
